--- a/Communications.xlsx
+++ b/Communications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>Process</t>
   </si>
@@ -228,6 +228,60 @@
   </si>
   <si>
     <t>ror2120_FF_SAP_Probation.html</t>
+  </si>
+  <si>
+    <t>ror2120_FF_SAP_Failed_Appeal_Cond.mjml</t>
+  </si>
+  <si>
+    <t>ror2120_FF_SAP_Failed_Acad.mjml</t>
+  </si>
+  <si>
+    <t>ror2120_FF_SAP_Exceeds_MTF.mjml</t>
+  </si>
+  <si>
+    <t>ror2120_FF_SAP_Probation.mjml</t>
+  </si>
+  <si>
+    <t>ror2120_FF_SAP_Aid_Terminated.mjml</t>
+  </si>
+  <si>
+    <t>Financial Aid Cannot be Processed</t>
+  </si>
+  <si>
+    <t>Financial Aid Cannot be Processed - Reminder</t>
+  </si>
+  <si>
+    <t>Reminder - Financial Aid Cannot be Processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We are Processing your Financial Aid</t>
+  </si>
+  <si>
+    <t>ror2090_FF_FA_Cannot_Be_Processed.html</t>
+  </si>
+  <si>
+    <t>ror2090_FF_FA_Cannot_Be_Processed_1.html</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>2 week reminder</t>
+  </si>
+  <si>
+    <t>monthly reminder</t>
+  </si>
+  <si>
+    <t>Placed in Tracking grp ADMIT in M,P</t>
+  </si>
+  <si>
+    <t>REQ. Satisfied-Good SAP - except TGRP=NOAPP,REJECT,ADMTCH,DFAULT</t>
+  </si>
+  <si>
+    <t>ror2090_FF_FA_Cannot_Be_Processed_2.html</t>
+  </si>
+  <si>
+    <t>ror2090_FF_FA_Being_Processed.html</t>
   </si>
 </sst>
 </file>
@@ -243,12 +297,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,23 +606,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="5" width="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +641,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -601,51 +665,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
       <c r="E3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
       <c r="E4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
       </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -659,18 +735,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -678,7 +757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -686,7 +765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -694,7 +773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -714,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -731,7 +810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -745,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -756,7 +835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -767,7 +846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -778,7 +857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -792,59 +871,116 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Communications.xlsx
+++ b/Communications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Process</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Tracking &amp; Award/Rev</t>
   </si>
   <si>
-    <t>NOHOME Email</t>
-  </si>
-  <si>
     <t>ROR2260</t>
   </si>
   <si>
@@ -282,6 +279,27 @@
   </si>
   <si>
     <t>ror2090_FF_FA_Being_Processed.html</t>
+  </si>
+  <si>
+    <t>NOHOME Email-DPP</t>
+  </si>
+  <si>
+    <t>Dual Partner Program (Home &amp; Partner School)</t>
+  </si>
+  <si>
+    <t>ror2115_DP_NOHOME.mjml</t>
+  </si>
+  <si>
+    <t>ror2115_DP_NOHOME.html</t>
+  </si>
+  <si>
+    <t>ror2360_DL_Disb.mjml</t>
+  </si>
+  <si>
+    <t>ror2360_DL_Disb.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL Disbursement </t>
   </si>
 </sst>
 </file>
@@ -608,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,13 +688,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,13 +702,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,13 +730,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,13 +744,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
         <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,7 +836,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -865,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -879,16 +897,16 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,13 +914,13 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,13 +928,13 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,13 +942,13 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +961,16 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -954,7 +981,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -965,7 +992,16 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -973,10 +1009,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
